--- a/medicine/Premiers secours et secourisme/Secours_alpin_valdôtain/Secours_alpin_valdôtain.xlsx
+++ b/medicine/Premiers secours et secourisme/Secours_alpin_valdôtain/Secours_alpin_valdôtain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Secours_alpin_vald%C3%B4tain</t>
+          <t>Secours_alpin_valdôtain</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Secours alpin valdôtain est une organisation de secours en montagne responsable des interventions terrestres dans les régions alpines ou difficilement accessibles de la Vallée d'Aoste.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Secours_alpin_vald%C3%B4tain</t>
+          <t>Secours_alpin_valdôtain</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis 1954, le Club alpin italien se charge du secours en montagne par le biais du Corps national de secours alpin (CNSA).
 La première disposition législative régionale en matière de secours en montagne est définie en 1975.
